--- a/documentation/Heatmap Data Definitions - Latest.xlsx
+++ b/documentation/Heatmap Data Definitions - Latest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmorran/Dropbox (Open Grid Systems)/Open Grid/Projects/Ofgem/001 LTDS/5-Deliverables/Heatmaps Proposal/RC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmorran/Dropbox (Open Grid Systems)/Open Grid/Projects/Ofgem/001 LTDS/5-Deliverables/Heatmaps/GitHub/network-heatmaps-api/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E5E39-C0AA-0A47-BCD4-D3D81E264026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EDE00-2A17-E94B-A77B-67D4F142C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1320" windowWidth="40960" windowHeight="24040" activeTab="8" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
+    <workbookView xWindow="4580" yWindow="1320" windowWidth="40960" windowHeight="24040" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Substation" sheetId="1" r:id="rId1"/>
     <sheet name="Circuit" sheetId="7" r:id="rId2"/>
-    <sheet name="Load" sheetId="2" r:id="rId3"/>
+    <sheet name="Demand" sheetId="2" r:id="rId3"/>
     <sheet name="Generator" sheetId="3" r:id="rId4"/>
     <sheet name="Storage" sheetId="5" r:id="rId5"/>
     <sheet name="Transformer" sheetId="4" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="278">
   <si>
     <t>Element</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Enum [Red, Amber, Green]</t>
   </si>
   <si>
-    <t>loadConstraint</t>
-  </si>
-  <si>
     <t>Generator</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>0..n</t>
   </si>
   <si>
-    <t>rating</t>
-  </si>
-  <si>
     <t>fromVoltage</t>
   </si>
   <si>
@@ -231,21 +225,9 @@
     <t>Identity</t>
   </si>
   <si>
-    <t>Load</t>
-  </si>
-  <si>
     <t>technologyType</t>
   </si>
   <si>
-    <t>The human readable name of the load</t>
-  </si>
-  <si>
-    <t>True if the load represents an aggregation of multiple loads all connected at a single voltage level</t>
-  </si>
-  <si>
-    <t>The technology the connected load</t>
-  </si>
-  <si>
     <t>Transformers</t>
   </si>
   <si>
@@ -291,18 +273,12 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>The voltage the load is connected at</t>
-  </si>
-  <si>
     <t>The voltage the storage is connected at</t>
   </si>
   <si>
     <t>The currently connected generation capacity</t>
   </si>
   <si>
-    <t>The currently connected load capacity</t>
-  </si>
-  <si>
     <t>Represents an individual or aggregated storage at the substation. This may represent the aggregation of all storage at a voltage level or individual connected/contracted/quoted storage</t>
   </si>
   <si>
@@ -318,9 +294,6 @@
     <t>A transformer at a substation. Optional but can be useful if ratings and capacity are required on a per-transformer level</t>
   </si>
   <si>
-    <t>The Master Resource ID of the Load. Persistent across each release of the data</t>
-  </si>
-  <si>
     <t>The Master Resource ID of the Stroage device. Persistent across each release of the data</t>
   </si>
   <si>
@@ -339,9 +312,6 @@
     <t>Human readble name of the rating</t>
   </si>
   <si>
-    <t>Rating in MVA</t>
-  </si>
-  <si>
     <t>From voltage for the rating</t>
   </si>
   <si>
@@ -417,18 +387,12 @@
     <t>Voltage of the circuit</t>
   </si>
   <si>
-    <t>Loads</t>
-  </si>
-  <si>
     <t>generationConstraint</t>
   </si>
   <si>
     <t>Generators</t>
   </si>
   <si>
-    <t>The loads at the station covering connected, contracted and quoted</t>
-  </si>
-  <si>
     <t>The generators at the station covering connected, contracted and quoted</t>
   </si>
   <si>
@@ -444,39 +408,6 @@
     <t>Linked References (see other data definitions)</t>
   </si>
   <si>
-    <t>loadTotalCapacity</t>
-  </si>
-  <si>
-    <t>loadConnectedCapacity</t>
-  </si>
-  <si>
-    <t>loadContractedCapacity</t>
-  </si>
-  <si>
-    <t>loadQuotedCapacity</t>
-  </si>
-  <si>
-    <t>loadAvailableCapacity</t>
-  </si>
-  <si>
-    <t>loadMaximum</t>
-  </si>
-  <si>
-    <t>loadMinimum</t>
-  </si>
-  <si>
-    <t>load99Percentile</t>
-  </si>
-  <si>
-    <t>load75Percentile</t>
-  </si>
-  <si>
-    <t>load50Percentile</t>
-  </si>
-  <si>
-    <t>load25Percentile</t>
-  </si>
-  <si>
     <t>generationTotalCapacity</t>
   </si>
   <si>
@@ -528,15 +459,6 @@
     <t>Short code name for substation (alphanumeric, uppercase letters only)</t>
   </si>
   <si>
-    <t>A RAG definition of the load constraints at the substation. A utility should provide details on how this RAG status is calculated as part of the accompanying documentation</t>
-  </si>
-  <si>
-    <t>Available load capacity at the substation calculated as: loadTotalCapacity - (loadMaximum + loadContractedCapacity)</t>
-  </si>
-  <si>
-    <t>Available generation capacity at the substation calculated as: generationTotalCapacity - (generationConnectedCapacity +generationContractedCapacity) + loadMinimum</t>
-  </si>
-  <si>
     <t>The Master Resource ID of the Circuit. Persistent across each release of the data</t>
   </si>
   <si>
@@ -546,9 +468,6 @@
     <t>Free text for any additional descriptive data about the circuit</t>
   </si>
   <si>
-    <t>A RAG definition of the load constraints on the circuit. A utility should provide details on how this RAG status is calculated</t>
-  </si>
-  <si>
     <t>Curtailment</t>
   </si>
   <si>
@@ -558,27 +477,18 @@
     <t>Curtailments at the Substation</t>
   </si>
   <si>
-    <t>Curtailment of load or generation capacity at the substation with optional day/time and season parameters</t>
-  </si>
-  <si>
     <t>Human readable name of the curtailment</t>
   </si>
   <si>
     <t>Free text for any additional descriptive data about the curtailment</t>
   </si>
   <si>
-    <t>Enum [Load, Generation]</t>
-  </si>
-  <si>
     <t>The type of curtailment (enumerated field to allow for easier processing/identification)</t>
   </si>
   <si>
     <t>curtailedBy</t>
   </si>
   <si>
-    <t>The amount the load/generation capacity is curtailed by</t>
-  </si>
-  <si>
     <t>The technology the curtailment applies to e.g for generation  CHP, Wind, PV, Battery</t>
   </si>
   <si>
@@ -621,30 +531,12 @@
     <t>The currently active quoted generation capacity above contracted (this is optional as connected/contracted generation may not have records of quotes and after a value is contracted this value is no longer relevant)</t>
   </si>
   <si>
-    <t>The currently contracted load capacity which is not yet connected  (i.e. do not include any load that is included in loadConnectedCapacity)</t>
-  </si>
-  <si>
-    <t>The currently active quoted load capacity excluding contracted and connected (this is optional as connected/contracted generation may not have records of quotes and after a value is contracted this value is no longer relevant)</t>
-  </si>
-  <si>
     <t>The currently contracted generation capacity excluding any that are already contracted or connected  (i.e. do not include any generation that is included in generationConnectedCapacity)</t>
   </si>
   <si>
-    <t>The firm capacity for load at the substation. Any constraints that impact this capacity should be listed as individual constraints linked to the substation</t>
-  </si>
-  <si>
     <t>The total firm generation capacity of the substation. Any constraints that impact this capacity should be listed as individual constraints linked to the substation</t>
   </si>
   <si>
-    <t>Sum of all load currently connected at the substation. This includes individual loads and storage that are explicitly defined and aggregate value of other connect loads and storage. The value for loadConnectedCapacity must be greater than or equal to the sum of the loadConnectedCapacity values in the Load and Storage elements</t>
-  </si>
-  <si>
-    <t>Sum of all load currently contracted at the substation which is not yet connected  (i.e. do not include any load that is included in loadConnectedCapacity). This includes individual loads and storage that are explicitly defined and aggregate value of other connect loads and storage. The value for loadContractedCapacity must be greater than or equal to the sum of the loadContractedCapacity values in the Load and Storage elements</t>
-  </si>
-  <si>
-    <t>Sum of all load currently quoted at the substation excluding contracted and connected (i.e. does not include loadConnectedCapacity or loadContractedCapacity). This includes individual loads and storage that are explicitly defined and aggregate value of other connect loads and storage. The value for loadQuotedCapacity must be greater than or equal to the sum of the loadQuotedCapacity values in the Load and Storage elements</t>
-  </si>
-  <si>
     <t>Sum of all generation currently connected at the substation. This includes individual generation and storage that are explicitly defined and aggregate value of other connect generation and storage. The value forgenerationConnectedCapacity must be greater than or equal to the sum of the generationConnectedCapacity values in the Generator and Storage elements</t>
   </si>
   <si>
@@ -654,21 +546,6 @@
     <t>Sum of all quoted currently generation at the substation excluding any that are already contracted or connected. This includes individual generation and storage that are explicitly defined and aggregate value of other connect generation and storage. The value for generationQuotedCapacity must be greater than or equal to the sum of the generationQuotedCapacity values in the Generator and Storage elements</t>
   </si>
   <si>
-    <t>Minimum rated section in the circuit (i.e. limiting series element)</t>
-  </si>
-  <si>
-    <t>Available load capacity on the circuit calculated as: loadTotalCapacity - (loadMaximum + loadContractedCapacity)</t>
-  </si>
-  <si>
-    <t>Sum of all load currently connected on the circuit</t>
-  </si>
-  <si>
-    <t>Sum of all load currently contracted on the circuit which are not yet connected  (i.e. do not include any load that is included in loadConnectedCapacity).</t>
-  </si>
-  <si>
-    <t>Sum of all load currently quoted on the circuit excluding contracted and connected (i.e. does not include loadConnectedCapacity or loadContractedCapacity).</t>
-  </si>
-  <si>
     <t>The longitude value of the coordinate as a single latitude/longitude point. For a GeoJSON Heatmap format this data will be part of the LineString geometry</t>
   </si>
   <si>
@@ -678,39 +555,12 @@
     <t>The identifier of the Primary this Substation is supplied by. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP, BSP or Primary Substation will not have this reference</t>
   </si>
   <si>
-    <t>A Substation with connect load, generation or storage. A substation can be either a Grid Supply Point (GSP), Bulk Supply Point (BSP), Primary or Secondary station</t>
-  </si>
-  <si>
-    <t>Enum [Thermal, FaultLevel]</t>
-  </si>
-  <si>
     <t>generationConstraintLimitingFactor</t>
   </si>
   <si>
     <t>The limiting factor for generation constraints, either thermal or fault level</t>
   </si>
   <si>
-    <t>loadConstraintLimitingFactor</t>
-  </si>
-  <si>
-    <t>The limiting factor for load constraints, either thermal or fault level</t>
-  </si>
-  <si>
-    <t>The 25th percentile of loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if  corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 50th percentile of loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if  corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 75th percentile of loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if  corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 99th percentile of loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if  corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The maximum loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions.  The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if  corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
     <t>HeatmapDataSet</t>
   </si>
   <si>
@@ -849,25 +699,184 @@
     <t>A date range for the validity of a resource. This should be two dates  to form a range. The first date is inclusive and the second date exclusive</t>
   </si>
   <si>
-    <t>The minimum loading on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation on the circuit, load diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include load data; for circuits below 33kV, if corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The maximum load at the substation. This is a normalised value calculated using historic measured values during normal operating conditions .The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if  corrected, net load data is not available, the value should be omitted</t>
-  </si>
-  <si>
-    <t>The 50th percentile of loading at the substation. This is a normalised value calculated using historic measured values during normal operating conditions.  The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if corrected, net load data is not available,  the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 75th percentile of loading at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if corrected, net load data is not available,  the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 99th percentile of loading at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if corrected, net load data is not available,  the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The minimum load at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if corrected, net load data is not available, the value should be omitted.</t>
-  </si>
-  <si>
-    <t>The 25th percentile of loading at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net load corrected for any generation at the substation, load diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include load data; for substations below 33kV, if  corrected, net load data is not available,  the value should be omitted.</t>
+    <t>A Substation with connect demand, generation or storage. A substation can be either a Grid Supply Point (GSP), Bulk Supply Point (BSP), Primary or Secondary station</t>
+  </si>
+  <si>
+    <t>demandTotalCapacity</t>
+  </si>
+  <si>
+    <t>The firm capacity for demand at the substation. Any constraints that impact this capacity should be listed as individual constraints linked to the substation</t>
+  </si>
+  <si>
+    <t>demandConnectedCapacity</t>
+  </si>
+  <si>
+    <t>demandContractedCapacity</t>
+  </si>
+  <si>
+    <t>Sum of all demand currently contracted at the substation which is not yet connected  (i.e. do not include any demand that is included in demandConnectedCapacity). This includes individual demands and storage that are explicitly defined and aggregate value of other connect demands and storage. The value for demandContractedCapacity must be greater than or equal to the sum of the demandContractedCapacity values in the demand and Storage elements</t>
+  </si>
+  <si>
+    <t>demandQuotedCapacity</t>
+  </si>
+  <si>
+    <t>Sum of all demand currently quoted at the substation excluding contracted and connected (i.e. does not include demandConnectedCapacity or demandContractedCapacity). This includes individual demands and storage that are explicitly defined and aggregate value of other connect demands and storage. The value for demandQuotedCapacity must be greater than or equal to the sum of the demandQuotedCapacity values in the demand and Storage elements</t>
+  </si>
+  <si>
+    <t>demandAvailableCapacity</t>
+  </si>
+  <si>
+    <t>demandMaximum</t>
+  </si>
+  <si>
+    <t>The maximum demand at the substation. This is a normalised value calculated using historic measured values during normal operating conditions .The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if  corrected, net demand data is not available, the value should be omitted</t>
+  </si>
+  <si>
+    <t>demandMinimum</t>
+  </si>
+  <si>
+    <t>The minimum demand at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>demand99Percentile</t>
+  </si>
+  <si>
+    <t>The 99th percentile of demanding at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available,  the value should be omitted.</t>
+  </si>
+  <si>
+    <t>demand75Percentile</t>
+  </si>
+  <si>
+    <t>The 75th percentile of demanding at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available,  the value should be omitted.</t>
+  </si>
+  <si>
+    <t>demand50Percentile</t>
+  </si>
+  <si>
+    <t>The 50th percentile of demanding at the substation. This is a normalised value calculated using historic measured values during normal operating conditions.  The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available,  the value should be omitted.</t>
+  </si>
+  <si>
+    <t>demand25Percentile</t>
+  </si>
+  <si>
+    <t>The 25th percentile of demanding at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if  corrected, net demand data is not available,  the value should be omitted.</t>
+  </si>
+  <si>
+    <t>demandConstraint</t>
+  </si>
+  <si>
+    <t>A RAG definition of the demand constraints at the substation. A utility should provide details on how this RAG status is calculated as part of the accompanying documentation</t>
+  </si>
+  <si>
+    <t>demandConstraintLimitingFactor</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>The demands at the station covering connected, contracted and quoted</t>
+  </si>
+  <si>
+    <t>The maximum demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions.  The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if  corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>The minimum demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>The 99th percentile of demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if  corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>The 75th percentile of demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if  corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>The 50th percentile of demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if  corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>The 25th percentile of demanding on the circuit. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation on the circuit, demand diversity factors, and any other internal processing normally undertaken. All circuits at 33kV and above must include demand data; for circuits below 33kV, if  corrected, net demand data is not available, the value should be omitted.</t>
+  </si>
+  <si>
+    <t>A RAG definition of the demand constraints on the circuit. A utility should provide details on how this RAG status is calculated</t>
+  </si>
+  <si>
+    <t>Sum of all demand currently contracted on the circuit which are not yet connected  (i.e. do not include any demand that is included in demandConnectedCapacity).</t>
+  </si>
+  <si>
+    <t>Sum of all demand currently quoted on the circuit excluding contracted and connected (i.e. does not include demandConnectedCapacity or demandContractedCapacity).</t>
+  </si>
+  <si>
+    <t>The Master Resource ID of the demand. Persistent across each release of the data</t>
+  </si>
+  <si>
+    <t>The human readable name of the demand</t>
+  </si>
+  <si>
+    <t>True if the demand represents an aggregation of multiple demands all connected at a single voltage level</t>
+  </si>
+  <si>
+    <t>The currently connected demand capacity</t>
+  </si>
+  <si>
+    <t>The currently contracted demand capacity which is not yet connected  (i.e. do not include any demand that is included in demandConnectedCapacity)</t>
+  </si>
+  <si>
+    <t>The currently active quoted demand capacity excluding contracted and connected (this is optional as connected/contracted generation may not have records of quotes and after a value is contracted this value is no longer relevant)</t>
+  </si>
+  <si>
+    <t>The voltage the demand is connected at</t>
+  </si>
+  <si>
+    <t>The technology the connected demand</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>The Master Resource ID of the Generator. Persistent across each release of the data</t>
+  </si>
+  <si>
+    <t>Curtailment of demand or generation capacity at the substation with optional day/time and season parameters</t>
+  </si>
+  <si>
+    <t>The amount the demand/generation capacity is curtailed by</t>
+  </si>
+  <si>
+    <t>Enum [Demand, Generation]</t>
+  </si>
+  <si>
+    <t>Demands</t>
+  </si>
+  <si>
+    <t>summerRating</t>
+  </si>
+  <si>
+    <t>winterRating</t>
+  </si>
+  <si>
+    <t>Summer rating for minimum rated section in the circuit (i.e. limiting series element)</t>
+  </si>
+  <si>
+    <t>Winter rating for minimum rated section in the circuit (i.e. limiting series element)</t>
+  </si>
+  <si>
+    <t>Summer Rating in MVA</t>
+  </si>
+  <si>
+    <t>Winter Rating in MVA</t>
+  </si>
+  <si>
+    <t>Enum [Thermal, Voltage, FaultLevel]</t>
+  </si>
+  <si>
+    <t>The limiting factor for demand constraints, either thermal, voltage or fault level</t>
+  </si>
+  <si>
+    <t>The available demand capacity at the substation. This value is calculated based on total firm capacity, maximum demand, contracted capacity, and any other constraints on the network</t>
+  </si>
+  <si>
+    <t>Available generation capacity at the substation.This value is calculated based on total firm generation, capacity, demand, connected capacity, contracted capacity, and any other constraints on the network</t>
+  </si>
+  <si>
+    <t>The available demand capacity on the circuit. This value is calculated based on the circuit rating, maximum demand, contracted capacity, and any other constraints on the network</t>
   </si>
 </sst>
 </file>
@@ -1221,6 +1230,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,15 +1307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2A9AF-3C70-4340-88A0-CE7B886194C2}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,13 +1674,13 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
@@ -1725,10 +1734,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -1737,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -1803,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -1892,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
@@ -1946,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
@@ -1958,18 +1967,18 @@
         <v>16</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
     </row>
-    <row r="16" spans="1:9" s="41" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
@@ -1981,85 +1990,85 @@
         <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:9" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" s="41" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
     </row>
-    <row r="20" spans="1:9" s="41" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="41" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
@@ -2071,17 +2080,17 @@
         <v>16</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="47"/>
     </row>
-    <row r="21" spans="1:9" s="41" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="41" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
@@ -2093,17 +2102,17 @@
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
     </row>
-    <row r="22" spans="1:9" s="41" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="41" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>24</v>
@@ -2115,17 +2124,17 @@
         <v>16</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
     </row>
-    <row r="23" spans="1:9" s="41" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="41" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>24</v>
@@ -2137,17 +2146,15 @@
         <v>16</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+        <v>236</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="41" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>24</v>
@@ -2159,38 +2166,41 @@
         <v>16</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="41" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>239</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
@@ -2199,41 +2209,40 @@
         <v>6</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:9" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:9" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>216</v>
+      <c r="B27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:9" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>24</v>
@@ -2245,17 +2254,18 @@
         <v>16</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="I28" s="47"/>
+    </row>
+    <row r="29" spans="1:9" s="41" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>24</v>
@@ -2267,53 +2277,52 @@
         <v>16</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
     </row>
-    <row r="30" spans="1:9" s="41" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" s="41" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" s="41" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
@@ -2323,19 +2332,19 @@
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -2345,10 +2354,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>14</v>
@@ -2357,40 +2366,38 @@
         <v>6</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B34" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>14</v>
@@ -2399,38 +2406,38 @@
         <v>16</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="41" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="41" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>18</v>
@@ -2439,18 +2446,18 @@
         <v>16</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="41" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>18</v>
@@ -2459,18 +2466,18 @@
         <v>16</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="41" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>18</v>
@@ -2479,35 +2486,35 @@
         <v>16</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>24</v>
@@ -2519,139 +2526,139 @@
         <v>16</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="B43" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="D43" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>156</v>
+      <c r="B44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+    </row>
+    <row r="47" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    </row>
+    <row r="48" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-    </row>
-    <row r="48" spans="1:8" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>68</v>
+      <c r="B48" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2659,46 +2666,29 @@
         <v>5</v>
       </c>
       <c r="B49" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>52</v>
-      </c>
       <c r="E49" s="52" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>170</v>
-      </c>
-    </row>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+    </row>
     <row r="56" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42"/>
     </row>
@@ -2708,8 +2698,13 @@
     <row r="58" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="42"/>
     </row>
-    <row r="59" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="42"/>
@@ -2718,14 +2713,6 @@
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2738,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC405D83-9CB1-A44A-97E4-8C22574D93AD}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,19 +2760,19 @@
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+        <v>63</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>9</v>
@@ -2800,12 +2787,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>8</v>
@@ -2820,12 +2807,12 @@
         <v>6</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>25</v>
@@ -2840,15 +2827,15 @@
         <v>6</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>24</v>
@@ -2860,15 +2847,15 @@
         <v>16</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>24</v>
@@ -2880,15 +2867,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>24</v>
@@ -2900,15 +2887,15 @@
         <v>16</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>24</v>
@@ -2920,15 +2907,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>24</v>
@@ -2940,15 +2927,15 @@
         <v>16</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>24</v>
@@ -2960,15 +2947,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>37</v>
@@ -2980,15 +2967,15 @@
         <v>6</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>24</v>
@@ -3000,15 +2987,15 @@
         <v>16</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>24</v>
@@ -3020,15 +3007,15 @@
         <v>16</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>24</v>
@@ -3040,328 +3027,308 @@
         <v>16</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>130</v>
-      </c>
+      <c r="E22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+        <v>100</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="45" t="s">
+      <c r="A33" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="D33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3372,7 +3339,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3407,19 +3374,19 @@
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
+        <v>261</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
@@ -3434,12 +3401,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
@@ -3454,35 +3421,35 @@
         <v>6</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>24</v>
@@ -3494,15 +3461,15 @@
         <v>16</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>24</v>
@@ -3514,15 +3481,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>24</v>
@@ -3534,15 +3501,15 @@
         <v>16</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>22</v>
@@ -3554,15 +3521,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -3574,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3557,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3624,19 +3591,19 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>9</v>
@@ -3651,12 +3618,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>8</v>
@@ -3671,35 +3638,35 @@
         <v>6</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>24</v>
@@ -3711,15 +3678,15 @@
         <v>16</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>24</v>
@@ -3731,15 +3698,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>24</v>
@@ -3751,15 +3718,15 @@
         <v>16</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
@@ -3771,15 +3738,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>6</v>
@@ -3791,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3807,7 +3774,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3842,19 +3809,19 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+        <v>75</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
@@ -3869,12 +3836,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>8</v>
@@ -3889,35 +3856,35 @@
         <v>6</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>24</v>
@@ -3929,15 +3896,15 @@
         <v>16</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>24</v>
@@ -3949,15 +3916,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
@@ -3969,15 +3936,15 @@
         <v>16</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>24</v>
@@ -3989,15 +3956,15 @@
         <v>16</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>24</v>
@@ -4009,15 +3976,15 @@
         <v>16</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>24</v>
@@ -4029,15 +3996,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>22</v>
@@ -4049,15 +4016,15 @@
         <v>16</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>6</v>
@@ -4069,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4082,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF72580C-BB75-F54D-BE38-C617BB2C9C97}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4120,25 +4087,25 @@
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+        <v>55</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>14</v>
@@ -4147,12 +4114,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>8</v>
@@ -4167,12 +4134,12 @@
         <v>6</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>12</v>
@@ -4181,50 +4148,50 @@
         <v>22</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+        <v>58</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>8</v>
@@ -4239,15 +4206,15 @@
         <v>6</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>24</v>
@@ -4259,18 +4226,18 @@
         <v>16</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>14</v>
@@ -4279,15 +4246,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>22</v>
@@ -4299,7 +4266,27 @@
         <v>16</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4303,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4348,19 +4335,19 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+        <v>48</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>8</v>
@@ -4375,12 +4362,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>25</v>
@@ -4395,18 +4382,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>14</v>
@@ -4415,7 +4402,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4431,7 +4418,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4464,19 +4451,19 @@
     </row>
     <row r="2" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+        <v>141</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>8</v>
@@ -4491,12 +4478,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>25</v>
@@ -4511,18 +4498,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>14</v>
@@ -4531,15 +4518,15 @@
         <v>6</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>24</v>
@@ -4551,15 +4538,15 @@
         <v>16</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>24</v>
@@ -4571,18 +4558,18 @@
         <v>16</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
@@ -4591,18 +4578,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
@@ -4611,47 +4598,47 @@
         <v>6</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4666,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B076789-349C-4E48-B237-2FFE2AFE92C5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,28 +4684,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+        <v>172</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>6</v>
@@ -4730,18 +4717,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>6</v>
@@ -4753,18 +4740,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>6</v>
@@ -4776,38 +4763,38 @@
         <v>6</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>25</v>
@@ -4822,18 +4809,18 @@
         <v>6</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>6</v>
@@ -4845,18 +4832,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -4868,41 +4855,41 @@
         <v>6</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>6</v>
@@ -4914,18 +4901,18 @@
         <v>6</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>6</v>
@@ -4937,18 +4924,18 @@
         <v>6</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>6</v>
@@ -4960,18 +4947,18 @@
         <v>6</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>6</v>
@@ -4983,76 +4970,76 @@
         <v>6</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="87" t="s">
+      <c r="A17" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="86"/>
+      <c r="F17" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="86"/>
+      <c r="A18" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/Heatmap Data Definitions - Latest.xlsx
+++ b/documentation/Heatmap Data Definitions - Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ofgem\001 LTDS\5-Deliverables\Heatmaps\GitHub\network-heatmaps-api\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmorran/Open Grid Systems Dropbox/Open Grid/Projects/Ofgem/001 LTDS/5-Deliverables/Heatmaps/GitHub/network-heatmaps-api/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD9557-E931-4470-B5DB-E2A4B96F4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CC1FA-D67D-2943-AF31-B2A89DA70BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1845" windowWidth="21285" windowHeight="16155" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
+    <workbookView xWindow="61020" yWindow="2620" windowWidth="33940" windowHeight="20260" activeTab="3" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="10" r:id="rId1"/>
@@ -100,12 +100,6 @@
     <t>GSP</t>
   </si>
   <si>
-    <t>The identifier of the BSP this Substation is supplied by. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP or BSP Substation will not have this reference, and the Scottish networks do not have BSPs</t>
-  </si>
-  <si>
-    <t>The name of the GSP this Substation is within. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP Substation will not have this reference</t>
-  </si>
-  <si>
     <t>KV</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>The latitude value of the coordinate as a single latitude/longitude point. For a GeoJSON Heatmap format this data will be part of the LineString geometry</t>
   </si>
   <si>
-    <t>The identifier of the Primary this Substation is supplied by. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP, BSP or Primary Substation will not have this reference</t>
-  </si>
-  <si>
     <t>generationConstraintLimitingFactor</t>
   </si>
   <si>
@@ -901,9 +892,6 @@
     <t>True if the generator represents an aggregation of multiple storage devices all connected at a single voltage level. If technologyType is left blank it is assumed that the Storage aggregates all storage types. If technologyType is populated and aggregate is true the Storage reflects the aggregate of that type of storage</t>
   </si>
   <si>
-    <t>mRID of the Substation the Transformer is within (used where CIM data is being produced and the mRID attributes are populated for Substations). Where no CIM mRID is yet being produced, the name of the Substation should be used</t>
-  </si>
-  <si>
     <t>An additional constraint/restriction on the Substation or Circuit. This is intended for non-numeric constraints e.g. to denote physical restrictions on reinforcement</t>
   </si>
   <si>
@@ -938,6 +926,18 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>The name or identifier of the GSP this Substation is within. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP Substation will not have this reference</t>
+  </si>
+  <si>
+    <t>The name or identifier of the BSP this Substation is supplied by. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP or BSP Substation will not have this reference, and the Scottish networks do not have BSPs</t>
+  </si>
+  <si>
+    <t>The name or identifier of the Primary this Substation is supplied by. It is assumed the corresponding Substation will be contained within the data. Optional as a GSP, BSP or Primary Substation will not have this reference</t>
+  </si>
+  <si>
+    <t>The Master Resource ID of the Traansformer. Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM PowerTransformer.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,6 +1292,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,8 +1362,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,27 +1686,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B18B7-7C58-B64D-BB1E-331363203685}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>45280</v>
       </c>
@@ -1718,21 +1717,21 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1740,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1751,493 +1750,493 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="80" t="s">
-        <v>249</v>
+      <c r="C6" s="57" t="s">
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>203</v>
+      <c r="C7" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>204</v>
+      <c r="C8" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>208</v>
+      <c r="C9" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="80" t="s">
-        <v>209</v>
+      <c r="C10" s="57" t="s">
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>210</v>
+      <c r="C11" t="s">
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
       <c r="D21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>210</v>
       </c>
-      <c r="D28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>213</v>
-      </c>
       <c r="D30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>203</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
       <c r="D36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>204</v>
+        <v>230</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2250,17 +2249,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="43.875" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,360 +2279,360 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="C6" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="G6" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C10" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="C12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="C13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="C14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="C15" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="C17" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="C18" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>199</v>
       </c>
       <c r="G18" s="55"/>
     </row>
@@ -2649,22 +2648,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2A9AF-3C70-4340-88A0-CE7B886194C2}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="4" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="56.625" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="4" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
-    <col min="9" max="9" width="48.625" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,19 +2686,19 @@
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2716,20 +2715,20 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -2738,20 +2737,20 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -2760,12 +2759,12 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2782,17 +2781,17 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -2804,17 +2803,17 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -2826,13 +2825,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -2849,42 +2848,42 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -2893,17 +2892,17 @@
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -2915,12 +2914,12 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2937,12 +2936,12 @@
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2959,20 +2958,20 @@
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:9" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
@@ -2981,42 +2980,42 @@
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="1:9" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="1:9" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>16</v>
@@ -3025,21 +3024,21 @@
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>16</v>
@@ -3048,21 +3047,21 @@
         <v>14</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>12</v>
@@ -3071,20 +3070,20 @@
         <v>14</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>16</v>
@@ -3093,20 +3092,20 @@
         <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:9" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>16</v>
@@ -3115,20 +3114,20 @@
         <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>16</v>
@@ -3137,20 +3136,20 @@
         <v>14</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:9" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>16</v>
@@ -3159,20 +3158,20 @@
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>16</v>
@@ -3181,18 +3180,18 @@
         <v>14</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>16</v>
@@ -3201,18 +3200,18 @@
         <v>14</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>12</v>
@@ -3221,21 +3220,21 @@
         <v>6</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>12</v>
@@ -3244,21 +3243,21 @@
         <v>6</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>12</v>
@@ -3267,20 +3266,20 @@
         <v>14</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>16</v>
@@ -3289,21 +3288,21 @@
         <v>14</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>16</v>
@@ -3312,21 +3311,21 @@
         <v>14</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
@@ -3335,20 +3334,20 @@
         <v>14</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>12</v>
@@ -3357,20 +3356,20 @@
         <v>14</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>12</v>
@@ -3379,20 +3378,20 @@
         <v>6</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>12</v>
@@ -3401,18 +3400,18 @@
         <v>6</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>16</v>
@@ -3421,18 +3420,18 @@
         <v>14</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>16</v>
@@ -3441,18 +3440,18 @@
         <v>14</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>16</v>
@@ -3461,18 +3460,18 @@
         <v>14</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>16</v>
@@ -3481,18 +3480,18 @@
         <v>14</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>16</v>
@@ -3501,18 +3500,18 @@
         <v>14</v>
       </c>
       <c r="F39" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>69</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>16</v>
@@ -3521,63 +3520,63 @@
         <v>14</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="39" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="40" t="s">
+      <c r="C44" s="48" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>118</v>
       </c>
       <c r="D44" s="48" t="s">
         <v>16</v>
@@ -3586,144 +3585,144 @@
         <v>6</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
   </sheetData>
@@ -3743,14 +3742,14 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="51.375" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,21 +3769,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>9</v>
@@ -3799,12 +3798,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>8</v>
@@ -3819,15 +3818,15 @@
         <v>6</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>6</v>
@@ -3839,18 +3838,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>16</v>
@@ -3859,18 +3858,18 @@
         <v>14</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>16</v>
@@ -3879,18 +3878,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>16</v>
@@ -3899,18 +3898,18 @@
         <v>14</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>16</v>
@@ -3919,18 +3918,18 @@
         <v>14</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>16</v>
@@ -3939,18 +3938,18 @@
         <v>14</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>16</v>
@@ -3959,18 +3958,18 @@
         <v>14</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>12</v>
@@ -3979,18 +3978,18 @@
         <v>6</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>16</v>
@@ -3999,18 +3998,18 @@
         <v>14</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>16</v>
@@ -4019,18 +4018,18 @@
         <v>14</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>16</v>
@@ -4039,18 +4038,18 @@
         <v>14</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>16</v>
@@ -4059,18 +4058,18 @@
         <v>14</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>16</v>
@@ -4079,18 +4078,18 @@
         <v>14</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>16</v>
@@ -4099,18 +4098,18 @@
         <v>14</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>12</v>
@@ -4119,15 +4118,15 @@
         <v>14</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>7</v>
@@ -4139,178 +4138,178 @@
         <v>6</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="C27" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>93</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="E30" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="32" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>101</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>12</v>
@@ -4319,18 +4318,18 @@
         <v>14</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>12</v>
@@ -4339,7 +4338,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4356,21 +4355,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0E145D-850A-5143-B25D-D805EB5B2C13}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4390,21 +4389,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
@@ -4419,12 +4418,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
@@ -4439,78 +4438,78 @@
         <v>6</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>16</v>
@@ -4519,18 +4518,18 @@
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="B9" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>12</v>
@@ -4539,15 +4538,15 @@
         <v>14</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -4559,7 +4558,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4575,19 +4574,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="40.375" customWidth="1"/>
+    <col min="6" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4607,21 +4606,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>9</v>
@@ -4630,18 +4629,18 @@
         <v>7</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>8</v>
@@ -4656,78 +4655,78 @@
         <v>6</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
@@ -4736,18 +4735,18 @@
         <v>14</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>12</v>
@@ -4756,15 +4755,15 @@
         <v>14</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>6</v>
@@ -4776,7 +4775,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4792,20 +4791,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="45.875" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4825,21 +4824,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>9</v>
@@ -4847,19 +4846,19 @@
       <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>8</v>
@@ -4874,78 +4873,78 @@
         <v>6</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>206</v>
-      </c>
       <c r="C8" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>16</v>
@@ -4954,58 +4953,58 @@
         <v>14</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="C11" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>16</v>
@@ -5014,18 +5013,18 @@
         <v>14</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>12</v>
@@ -5034,15 +5033,15 @@
         <v>14</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>6</v>
@@ -5054,7 +5053,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5070,20 +5069,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5103,41 +5102,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>8</v>
@@ -5152,64 +5151,64 @@
         <v>6</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>8</v>
@@ -5224,87 +5223,87 @@
         <v>6</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5324,14 +5323,14 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5351,21 +5350,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>8</v>
@@ -5380,47 +5379,47 @@
         <v>6</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5439,15 +5438,15 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5467,21 +5466,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>8</v>
@@ -5496,58 +5495,58 @@
         <v>6</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="28" t="s">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>131</v>
-      </c>
       <c r="C6" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>12</v>
@@ -5556,18 +5555,18 @@
         <v>14</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>16</v>
@@ -5576,18 +5575,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>134</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>16</v>
@@ -5596,18 +5595,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>137</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>16</v>
@@ -5616,47 +5615,47 @@
         <v>6</v>
       </c>
       <c r="F9" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="C11" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Heatmap Data Definitions - Latest.xlsx
+++ b/documentation/Heatmap Data Definitions - Latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmorran/Open Grid Systems Dropbox/Open Grid/Projects/Ofgem/001 LTDS/5-Deliverables/Heatmaps/GitHub/network-heatmaps-api/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CC1FA-D67D-2943-AF31-B2A89DA70BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3764B80-9BFA-1441-8012-F5C2D2871D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61020" yWindow="2620" windowWidth="33940" windowHeight="20260" activeTab="3" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
+    <workbookView xWindow="12980" yWindow="3800" windowWidth="33940" windowHeight="20260" activeTab="8" xr2:uid="{D7CEE95D-1517-EC4C-B28A-1A94A9BB30B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="10" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>Free text for any additional descriptive data about the constraint</t>
   </si>
   <si>
-    <t>The type of constraint (enumerated field to allow for easier processing/identification)</t>
-  </si>
-  <si>
     <t>FromSubstation</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>Free text for any additional descriptive data about the curtailment</t>
   </si>
   <si>
-    <t>The type of curtailment (enumerated field to allow for easier processing/identification)</t>
-  </si>
-  <si>
     <t>curtailedBy</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
     <t>The currently contracted generation capacity excluding any that are already contracted or connected  (i.e. do not include any generation that is included in generationConnectedCapacity)</t>
   </si>
   <si>
-    <t>The total firm generation capacity of the substation. Any constraints that impact this capacity should be listed as individual constraints linked to the substation</t>
-  </si>
-  <si>
     <t>Sum of all generation currently connected at the substation. This includes individual generation and storage that are explicitly defined and aggregate value of other connect generation and storage. The value forgenerationConnectedCapacity must be greater than or equal to the sum of the generationConnectedCapacity values in the Generator and Storage elements</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
     <t>The Master Resource ID of the Substation. Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM Substation.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
   </si>
   <si>
-    <t xml:space="preserve">The name of the license area. This may be the full text name or an abbreviation that should align with the abbreviations used in the license (e.g. Eastern Power Networks or EPN) </t>
-  </si>
-  <si>
     <t>The human readable name of the substation. This should be consistent with the naming used in LTDS, either Tables 1-8 of existing Excel format, or CIM Substation names for the CIM LTDS data</t>
   </si>
   <si>
@@ -808,9 +796,6 @@
     <t>Changed cardinality to optional</t>
   </si>
   <si>
-    <t>The maximum demand at the substation. This is a normalised value calculated using historic measured values during normal operating conditions .The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if  corrected, net demand data is not available, the value should be omitted. Users wishing to see separate summer/winter peaks can obtain this from the LTDS data</t>
-  </si>
-  <si>
     <t>The minimum demand at the substation. This is a normalised value calculated using historic measured values during normal operating conditions. The data represents net demand corrected for any generation at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available, the value should be omitted. Users wishing to see separate summer/winter peaks can obtain this from the LTDS data</t>
   </si>
   <si>
@@ -820,9 +805,6 @@
     <t>The available demand capacity at the substation. This value is calculated based on total firm capacity, maximum demand, connected capacity, quoted capacity, contracted capacity, and any other constraints on the network. The value should reflect the capacity a network operator would make available to a connecting party, which may be calcualted for the most onerous season, or a value based on more detailed analysis and internal policies</t>
   </si>
   <si>
-    <t>Available generation capacity at the substation.This value is calculated based on total firm generation, capacity, demand, connected capacity, quoted capacity, contracted capacity, and any other constraints on the network</t>
-  </si>
-  <si>
     <t>generationAvailabileCapacity</t>
   </si>
   <si>
@@ -844,24 +826,6 @@
     <t>The Master Resource ID of the Circuit.  Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM elements.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
   </si>
   <si>
-    <t>The maximum load on the circuit. This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data</t>
-  </si>
-  <si>
-    <t>The minimum demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data.</t>
-  </si>
-  <si>
-    <t>The 99th percentile of demand on the circuit. This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data</t>
-  </si>
-  <si>
-    <t>The 75th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data</t>
-  </si>
-  <si>
-    <t>The 50th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data</t>
-  </si>
-  <si>
-    <t>The 25th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions. All circuits at 33kV and above must include demand data</t>
-  </si>
-  <si>
     <t>Sum of all demand currently connected on the circuit</t>
   </si>
   <si>
@@ -874,9 +838,6 @@
     <t>The Master Resource ID of the demand. Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM elements.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
   </si>
   <si>
-    <t>Represents an individual or aggregated demand at the substation. This may represent the aggregation of all generation at a voltage level or individual connected/contracted/quoted generators</t>
-  </si>
-  <si>
     <t>The Master Resource ID of the Generator. Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM elements.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
   </si>
   <si>
@@ -938,6 +899,45 @@
   </si>
   <si>
     <t>The Master Resource ID of the Traansformer. Where CIM data is being produced for LTDS this ID should be present, persistent across each release of the data and should be the same as the mRID/rdf:ID of the CIM PowerTransformer.  If data is produced prior to the CIM LTDS data being published this attribute is optional.</t>
+  </si>
+  <si>
+    <t>The name of the license area. This should be the abbreviation used in the license (e.g. EPN for Eastern Power Networks)</t>
+  </si>
+  <si>
+    <t>The maximum demand at the substation. This is a normalised value calculated using historic measured values during normal operating conditions .The data represents net demand without removing the impact of any generation on observed demand at the substation, demand diversity factors, and any other internal processing normally undertaken. All substations at 33kV and above must include demand data; for substations below 33kV, if corrected, net demand data is not available, the value should be omitted. Users wishing to see separate summer/winter peaks can obtain this from the LTDS data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total firm generation capacity of the substation. Any constraints that impact this capacity should be listed as individual constraints linked to the substation. The approach used to calculate this value should be defined in accompanying documentation </t>
+  </si>
+  <si>
+    <t>Available generation capacity at the substation.This value is calculated based on total firm generation, capacity, demand, connected capacity, contracted capacity, and any other constraints on the network</t>
+  </si>
+  <si>
+    <t>The maximum load on the circuit. This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>The minimum demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>The 99th percentile of demand on the circuit. This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>The 75th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>The 50th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>The 25th percentile of demand on the circuit.  This is a value calculated using historic measured values and would not necessarily be corrected for generation on the circuit and normal operating conditions.</t>
+  </si>
+  <si>
+    <t>Represents an individual or aggregated demand at the substation. This may represent the aggregation of all generation at a voltage level or individual connected/contracted/quoted demand</t>
+  </si>
+  <si>
+    <t>The type of constraint (enumerated field to allow for easier processing/identification). Limited to Voltage, Physical or Other.</t>
+  </si>
+  <si>
+    <t>The type of curtailment (enumerated field to allow for easier processing/identification). Limited to Demand or Generation</t>
   </si>
 </sst>
 </file>
@@ -1697,13 +1697,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1717,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,10 +1758,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,10 +1791,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1802,10 +1802,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,10 +1813,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,10 +1824,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,10 +1835,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1846,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -1904,7 +1904,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -1912,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -1934,10 +1934,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -1945,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -1986,10 +1986,10 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -1997,10 +1997,10 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -2008,10 +2008,10 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -2019,10 +2019,10 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -2030,10 +2030,10 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -2041,10 +2041,10 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -2052,10 +2052,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -2063,10 +2063,10 @@
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -2074,10 +2074,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
@@ -2085,40 +2085,40 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -2140,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -2173,7 +2173,7 @@
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -2184,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2279,15 +2279,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -2297,10 +2297,10 @@
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>6</v>
@@ -2312,19 +2312,19 @@
         <v>6</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
@@ -2335,18 +2335,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>6</v>
@@ -2358,38 +2358,38 @@
         <v>6</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>21</v>
@@ -2404,18 +2404,18 @@
         <v>6</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>6</v>
@@ -2427,18 +2427,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -2450,41 +2450,41 @@
         <v>6</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>6</v>
@@ -2496,18 +2496,18 @@
         <v>6</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>6</v>
@@ -2519,18 +2519,18 @@
         <v>6</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>6</v>
@@ -2542,18 +2542,18 @@
         <v>6</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>6</v>
@@ -2565,41 +2565,41 @@
         <v>6</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>168</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>5</v>
@@ -2611,16 +2611,16 @@
         <v>5</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>57</v>
@@ -2632,7 +2632,7 @@
         <v>57</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G18" s="55"/>
     </row>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2A9AF-3C70-4340-88A0-CE7B886194C2}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -2715,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -2742,16 +2742,16 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -2825,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -2839,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -2914,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -2936,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -2958,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -2968,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -2991,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>20</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -3012,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -3024,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -3035,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -3070,17 +3070,17 @@
         <v>14</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -3092,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -3102,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>20</v>
@@ -3114,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>20</v>
@@ -3136,7 +3136,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3146,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>20</v>
@@ -3158,7 +3158,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>20</v>
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>20</v>
@@ -3200,7 +3200,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3208,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>33</v>
@@ -3220,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -3231,10 +3231,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>12</v>
@@ -3243,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>20</v>
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -3276,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>20</v>
@@ -3288,7 +3288,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -3299,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>20</v>
@@ -3311,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -3322,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>20</v>
@@ -3334,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -3344,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>20</v>
@@ -3356,7 +3356,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>33</v>
@@ -3378,7 +3378,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -3388,10 +3388,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>12</v>
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3411,7 +3411,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>16</v>
@@ -3431,7 +3431,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>16</v>
@@ -3451,7 +3451,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>16</v>
@@ -3468,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>16</v>
@@ -3480,7 +3480,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>16</v>
@@ -3528,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>20</v>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>20</v>
@@ -3560,12 +3560,12 @@
         <v>14</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3573,10 +3573,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="48" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>116</v>
       </c>
       <c r="D44" s="48" t="s">
         <v>16</v>
@@ -3585,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3593,19 +3593,19 @@
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3613,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>34</v>
@@ -3625,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3645,7 +3645,7 @@
         <v>69</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
@@ -3687,7 +3687,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3695,19 +3695,19 @@
         <v>5</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="48" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC405D83-9CB1-A44A-97E4-8C22574D93AD}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3774,7 +3774,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -3798,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3818,7 +3818,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>20</v>
@@ -3858,15 +3858,15 @@
         <v>14</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>20</v>
@@ -3878,15 +3878,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>20</v>
@@ -3898,15 +3898,15 @@
         <v>14</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>20</v>
@@ -3918,15 +3918,15 @@
         <v>14</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>20</v>
@@ -3938,15 +3938,15 @@
         <v>14</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>20</v>
@@ -3958,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>33</v>
@@ -3978,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>20</v>
@@ -3998,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>20</v>
@@ -4018,7 +4018,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>20</v>
@@ -4038,7 +4038,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>20</v>
@@ -4058,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -4066,7 +4066,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>20</v>
@@ -4078,7 +4078,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -4086,7 +4086,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>20</v>
@@ -4098,7 +4098,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>7</v>
@@ -4138,7 +4138,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>7</v>
@@ -4158,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4166,19 +4166,19 @@
         <v>57</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4198,15 +4198,15 @@
         <v>42</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>29</v>
@@ -4230,27 +4230,27 @@
         <v>6</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4259,10 +4259,10 @@
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -4271,30 +4271,30 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="E30" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>26</v>
@@ -4318,12 +4318,12 @@
         <v>14</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>24</v>
@@ -4338,7 +4338,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4355,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0E145D-850A-5143-B25D-D805EB5B2C13}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
@@ -4418,12 +4418,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
@@ -4438,12 +4438,12 @@
         <v>6</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>36</v>
@@ -4458,15 +4458,15 @@
         <v>37</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>20</v>
@@ -4478,15 +4478,15 @@
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>20</v>
@@ -4498,15 +4498,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>20</v>
@@ -4518,12 +4518,12 @@
         <v>14</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>38</v>
@@ -4538,12 +4538,12 @@
         <v>14</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
@@ -4558,7 +4558,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4675,7 +4675,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4683,7 +4683,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>20</v>
@@ -4703,7 +4703,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>20</v>
@@ -4715,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -4723,7 +4723,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>20</v>
@@ -4735,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,7 +4746,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>12</v>
@@ -4853,7 +4853,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4893,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4901,7 +4901,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>20</v>
@@ -4913,7 +4913,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>20</v>
@@ -4933,7 +4933,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -4941,7 +4941,7 @@
         <v>69</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>20</v>
@@ -4953,7 +4953,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>20</v>
@@ -4981,7 +4981,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>20</v>
@@ -4993,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>20</v>
@@ -5013,7 +5013,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>12</v>
@@ -5131,7 +5131,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5162,7 +5162,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>50</v>
@@ -5231,7 +5231,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>20</v>
@@ -5243,7 +5243,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>20</v>
@@ -5263,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5274,7 +5274,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>12</v>
@@ -5294,7 +5294,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>12</v>
@@ -5320,7 +5320,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5355,7 +5355,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -5402,7 +5402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5434,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D14AE6-78C9-914E-B6BF-D269E096D5BA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="2" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>8</v>
@@ -5495,12 +5495,12 @@
         <v>6</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>21</v>
@@ -5515,18 +5515,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>12</v>
@@ -5535,15 +5535,15 @@
         <v>6</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>20</v>
@@ -5555,12 +5555,12 @@
         <v>14</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>54</v>
@@ -5575,18 +5575,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>16</v>
@@ -5595,18 +5595,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>16</v>
@@ -5615,47 +5615,47 @@
         <v>6</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
